--- a/team_specific_matrix/Tex. A&M-Commerce_B.xlsx
+++ b/team_specific_matrix/Tex. A&M-Commerce_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2095588235294118</v>
+        <v>0.2130681818181818</v>
       </c>
       <c r="C2">
-        <v>0.5367647058823529</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02205882352941177</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1397058823529412</v>
+        <v>0.1448863636363636</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09191176470588236</v>
+        <v>0.08522727272727272</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01324503311258278</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="C3">
-        <v>0.03311258278145696</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006622516556291391</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.006622516556291391</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="P3">
-        <v>0.7682119205298014</v>
+        <v>0.7875647668393783</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1721854304635762</v>
+        <v>0.155440414507772</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1923076923076923</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1041666666666667</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01388888888888889</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="E6">
-        <v>0.006944444444444444</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F6">
-        <v>0.1111111111111111</v>
+        <v>0.1090047393364929</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1736111111111111</v>
+        <v>0.2132701421800948</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04861111111111111</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2013888888888889</v>
+        <v>0.1848341232227488</v>
       </c>
       <c r="R6">
-        <v>0.0625</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="S6">
-        <v>0.2777777777777778</v>
+        <v>0.2938388625592417</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0859375</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.015625</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03125</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0859375</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03125</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1796875</v>
+        <v>0.1717791411042945</v>
       </c>
       <c r="R7">
-        <v>0.1171875</v>
+        <v>0.1104294478527607</v>
       </c>
       <c r="S7">
-        <v>0.453125</v>
+        <v>0.4294478527607362</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1172161172161172</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0293040293040293</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06227106227106227</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1245421245421245</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01831501831501832</v>
+        <v>0.01794871794871795</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1831501831501831</v>
+        <v>0.1871794871794872</v>
       </c>
       <c r="R8">
-        <v>0.05128205128205128</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="S8">
-        <v>0.4139194139194139</v>
+        <v>0.4282051282051282</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1388888888888889</v>
+        <v>0.1260162601626016</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005555555555555556</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07777777777777778</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09444444444444444</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03888888888888889</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.15</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="R9">
-        <v>0.06666666666666667</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="S9">
-        <v>0.4277777777777778</v>
+        <v>0.4471544715447154</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1388286334056399</v>
+        <v>0.1311228334589299</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01626898047722343</v>
+        <v>0.01959306706857573</v>
       </c>
       <c r="E10">
-        <v>0.002169197396963124</v>
+        <v>0.001507159005275057</v>
       </c>
       <c r="F10">
-        <v>0.06073752711496746</v>
+        <v>0.05802562170308968</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1301518438177874</v>
+        <v>0.1273549359457423</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01843817787418655</v>
+        <v>0.01657874905802562</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2342733188720174</v>
+        <v>0.2351168048229088</v>
       </c>
       <c r="R10">
-        <v>0.05531453362255966</v>
+        <v>0.06405425772418991</v>
       </c>
       <c r="S10">
-        <v>0.3438177874186551</v>
+        <v>0.346646571213263</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1343283582089552</v>
+        <v>0.15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1293532338308458</v>
+        <v>0.1115384615384615</v>
       </c>
       <c r="K11">
-        <v>0.2238805970149254</v>
+        <v>0.2269230769230769</v>
       </c>
       <c r="L11">
-        <v>0.4975124378109453</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01492537313432836</v>
+        <v>0.01153846153846154</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7850467289719626</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1495327102803738</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K12">
-        <v>0.01869158878504673</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="L12">
-        <v>0.03738317757009346</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009345794392523364</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.84</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.12</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09090909090909091</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="I15">
-        <v>0.03787878787878788</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="J15">
-        <v>0.2878787878787879</v>
+        <v>0.359375</v>
       </c>
       <c r="K15">
-        <v>0.1136363636363636</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007575757575757576</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06818181818181818</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3939393939393939</v>
+        <v>0.3177083333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01197604790419162</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1197604790419162</v>
+        <v>0.1260869565217391</v>
       </c>
       <c r="I16">
-        <v>0.1377245508982036</v>
+        <v>0.1173913043478261</v>
       </c>
       <c r="J16">
-        <v>0.4311377245508982</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K16">
-        <v>0.08982035928143713</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01197604790419162</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02994011976047904</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1676646706586826</v>
+        <v>0.1695652173913043</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02339181286549707</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1286549707602339</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="I17">
-        <v>0.1403508771929824</v>
+        <v>0.1416837782340862</v>
       </c>
       <c r="J17">
-        <v>0.4883040935672515</v>
+        <v>0.484599589322382</v>
       </c>
       <c r="K17">
-        <v>0.06725146198830409</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01461988304093567</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="N17">
-        <v>0.002923976608187134</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="O17">
-        <v>0.03508771929824561</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09941520467836257</v>
+        <v>0.09856262833675565</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009900990099009901</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1188118811881188</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="I18">
-        <v>0.1584158415841584</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="J18">
-        <v>0.4653465346534654</v>
+        <v>0.4836601307189543</v>
       </c>
       <c r="K18">
-        <v>0.1188118811881188</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009900990099009901</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0396039603960396</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07920792079207921</v>
+        <v>0.0915032679738562</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01141552511415525</v>
+        <v>0.01155115511551155</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2146118721461187</v>
+        <v>0.2161716171617162</v>
       </c>
       <c r="I19">
-        <v>0.09931506849315068</v>
+        <v>0.1014851485148515</v>
       </c>
       <c r="J19">
-        <v>0.4006849315068493</v>
+        <v>0.4067656765676568</v>
       </c>
       <c r="K19">
-        <v>0.0958904109589041</v>
+        <v>0.08498349834983498</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01712328767123288</v>
+        <v>0.0165016501650165</v>
       </c>
       <c r="N19">
-        <v>0.001141552511415525</v>
+        <v>0.0008250825082508251</v>
       </c>
       <c r="O19">
-        <v>0.04794520547945205</v>
+        <v>0.05693069306930693</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1118721461187215</v>
+        <v>0.1047854785478548</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tex. A&M-Commerce_B.xlsx
+++ b/team_specific_matrix/Tex. A&M-Commerce_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2130681818181818</v>
+        <v>0.216710182767624</v>
       </c>
       <c r="C2">
-        <v>0.5340909090909091</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02272727272727273</v>
+        <v>0.02088772845953003</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1448863636363636</v>
+        <v>0.1514360313315927</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08522727272727272</v>
+        <v>0.08093994778067885</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01036269430051814</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C3">
-        <v>0.0310880829015544</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01036269430051814</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.005181347150259068</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="P3">
-        <v>0.7875647668393783</v>
+        <v>0.7740384615384616</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.155440414507772</v>
+        <v>0.1730769230769231</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.15</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07582938388625593</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01421800947867299</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="E6">
-        <v>0.004739336492890996</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="F6">
-        <v>0.1090047393364929</v>
+        <v>0.1036036036036036</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2132701421800948</v>
+        <v>0.2117117117117117</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03317535545023697</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1848341232227488</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="R6">
-        <v>0.07109004739336493</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="S6">
-        <v>0.2938388625592417</v>
+        <v>0.2927927927927928</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0736196319018405</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01226993865030675</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04294478527607362</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1226993865030675</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03680981595092025</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1717791411042945</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="R7">
-        <v>0.1104294478527607</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="S7">
-        <v>0.4294478527607362</v>
+        <v>0.4316939890710382</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1025641025641026</v>
+        <v>0.1142191142191142</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02307692307692308</v>
+        <v>0.02331002331002331</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07179487179487179</v>
+        <v>0.07925407925407925</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1128205128205128</v>
+        <v>0.1142191142191142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01794871794871795</v>
+        <v>0.01631701631701632</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1871794871794872</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="R8">
-        <v>0.05641025641025641</v>
+        <v>0.05594405594405594</v>
       </c>
       <c r="S8">
-        <v>0.4282051282051282</v>
+        <v>0.4079254079254079</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1260162601626016</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004065040650406504</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07317073170731707</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0975609756097561</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02845528455284553</v>
+        <v>0.02713178294573643</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1585365853658537</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.06504065040650407</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="S9">
-        <v>0.4471544715447154</v>
+        <v>0.4534883720930232</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1311228334589299</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01959306706857573</v>
+        <v>0.02062588904694168</v>
       </c>
       <c r="E10">
-        <v>0.001507159005275057</v>
+        <v>0.001422475106685633</v>
       </c>
       <c r="F10">
-        <v>0.05802562170308968</v>
+        <v>0.0561877667140825</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1273549359457423</v>
+        <v>0.1251778093883357</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01657874905802562</v>
+        <v>0.01564722617354196</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2351168048229088</v>
+        <v>0.2339971550497866</v>
       </c>
       <c r="R10">
-        <v>0.06405425772418991</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="S10">
-        <v>0.346646571213263</v>
+        <v>0.3477951635846372</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.15</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1115384615384615</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K11">
-        <v>0.2269230769230769</v>
+        <v>0.2140350877192982</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.5298245614035088</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01153846153846154</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7531645569620253</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1764705882352941</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="K12">
-        <v>0.02205882352941177</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="L12">
-        <v>0.03676470588235294</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01470588235294118</v>
+        <v>0.01265822784810127</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7878787878787878</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1212121212121212</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1145833333333333</v>
+        <v>0.12</v>
       </c>
       <c r="I15">
-        <v>0.04166666666666666</v>
+        <v>0.045</v>
       </c>
       <c r="J15">
-        <v>0.359375</v>
+        <v>0.37</v>
       </c>
       <c r="K15">
-        <v>0.09895833333333333</v>
+        <v>0.095</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005208333333333333</v>
+        <v>0.005</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3177083333333333</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01739130434782609</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1260869565217391</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="I16">
-        <v>0.1173913043478261</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="J16">
-        <v>0.4347826086956522</v>
+        <v>0.4274193548387097</v>
       </c>
       <c r="K16">
-        <v>0.08260869565217391</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01739130434782609</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03478260869565217</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1695652173913043</v>
+        <v>0.1733870967741936</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02464065708418891</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1211498973305955</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="I17">
-        <v>0.1416837782340862</v>
+        <v>0.1352380952380952</v>
       </c>
       <c r="J17">
-        <v>0.484599589322382</v>
+        <v>0.4838095238095238</v>
       </c>
       <c r="K17">
-        <v>0.07597535934291581</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01026694045174538</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="N17">
-        <v>0.002053388090349076</v>
+        <v>0.001904761904761905</v>
       </c>
       <c r="O17">
-        <v>0.04106776180698152</v>
+        <v>0.0419047619047619</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09856262833675565</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006535947712418301</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1372549019607843</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.1241830065359477</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="J18">
-        <v>0.4836601307189543</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="K18">
-        <v>0.0915032679738562</v>
+        <v>0.1011904761904762</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0130718954248366</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05228758169934641</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0915032679738562</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01155115511551155</v>
+        <v>0.01085271317829457</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2161716171617162</v>
+        <v>0.2201550387596899</v>
       </c>
       <c r="I19">
-        <v>0.1014851485148515</v>
+        <v>0.09922480620155039</v>
       </c>
       <c r="J19">
-        <v>0.4067656765676568</v>
+        <v>0.3984496124031008</v>
       </c>
       <c r="K19">
-        <v>0.08498349834983498</v>
+        <v>0.09147286821705426</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0165016501650165</v>
+        <v>0.01705426356589147</v>
       </c>
       <c r="N19">
-        <v>0.0008250825082508251</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="O19">
-        <v>0.05693069306930693</v>
+        <v>0.0565891472868217</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1047854785478548</v>
+        <v>0.1054263565891473</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tex. A&M-Commerce_B.xlsx
+++ b/team_specific_matrix/Tex. A&M-Commerce_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.216710182767624</v>
+        <v>0.2211538461538461</v>
       </c>
       <c r="C2">
-        <v>0.5300261096605744</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02088772845953003</v>
+        <v>0.02163461538461538</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1514360313315927</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08093994778067885</v>
+        <v>0.0889423076923077</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009615384615384616</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C3">
-        <v>0.02884615384615385</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009615384615384616</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.004807692307692308</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="P3">
-        <v>0.7740384615384616</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1730769230769231</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7727272727272727</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07657657657657657</v>
+        <v>0.0811965811965812</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01351351351351351</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E6">
-        <v>0.004504504504504504</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="F6">
-        <v>0.1036036036036036</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2117117117117117</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03153153153153153</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1891891891891892</v>
+        <v>0.1837606837606838</v>
       </c>
       <c r="R6">
-        <v>0.07657657657657657</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="S6">
-        <v>0.2927927927927928</v>
+        <v>0.2991452991452991</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07103825136612021</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01092896174863388</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03825136612021858</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1256830601092896</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03278688524590164</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.185792349726776</v>
+        <v>0.185929648241206</v>
       </c>
       <c r="R7">
-        <v>0.1038251366120219</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="S7">
-        <v>0.4316939890710382</v>
+        <v>0.4472361809045226</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1142191142191142</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02331002331002331</v>
+        <v>0.02412280701754386</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07925407925407925</v>
+        <v>0.07675438596491228</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1142191142191142</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01631701631701632</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1888111888111888</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="R8">
-        <v>0.05594405594405594</v>
+        <v>0.05482456140350877</v>
       </c>
       <c r="S8">
-        <v>0.4079254079254079</v>
+        <v>0.4035087719298245</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.124031007751938</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.003875968992248062</v>
+        <v>0.003690036900369004</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06976744186046512</v>
+        <v>0.06642066420664207</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09302325581395349</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02713178294573643</v>
+        <v>0.02583025830258303</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1697416974169742</v>
       </c>
       <c r="R9">
-        <v>0.06201550387596899</v>
+        <v>0.05904059040590406</v>
       </c>
       <c r="S9">
-        <v>0.4534883720930232</v>
+        <v>0.4538745387453875</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.131578947368421</v>
+        <v>0.1307490144546649</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02062588904694168</v>
+        <v>0.02102496714848883</v>
       </c>
       <c r="E10">
-        <v>0.001422475106685633</v>
+        <v>0.001314060446780552</v>
       </c>
       <c r="F10">
-        <v>0.0561877667140825</v>
+        <v>0.05387647831800263</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1251778093883357</v>
+        <v>0.1268068331143233</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01564722617354196</v>
+        <v>0.01576872536136662</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2339971550497866</v>
+        <v>0.2345597897503285</v>
       </c>
       <c r="R10">
-        <v>0.06756756756756757</v>
+        <v>0.06701708278580815</v>
       </c>
       <c r="S10">
-        <v>0.3477951635846372</v>
+        <v>0.3488830486202366</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1403508771929824</v>
+        <v>0.1477987421383648</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1052631578947368</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="K11">
-        <v>0.2140350877192982</v>
+        <v>0.2232704402515723</v>
       </c>
       <c r="L11">
-        <v>0.5298245614035088</v>
+        <v>0.5157232704402516</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01052631578947368</v>
+        <v>0.01257861635220126</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7531645569620253</v>
+        <v>0.7341040462427746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1772151898734177</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="K12">
-        <v>0.0189873417721519</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="L12">
-        <v>0.0379746835443038</v>
+        <v>0.04624277456647399</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01265822784810127</v>
+        <v>0.01734104046242774</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.725</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1388888888888889</v>
+        <v>0.15</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.12</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="I15">
-        <v>0.045</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="J15">
-        <v>0.37</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="K15">
-        <v>0.095</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.305</v>
+        <v>0.3051643192488263</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01612903225806452</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1209677419354839</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="I16">
-        <v>0.1209677419354839</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="J16">
-        <v>0.4274193548387097</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="K16">
-        <v>0.08870967741935484</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02016129032258064</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03225806451612903</v>
+        <v>0.0299625468164794</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1733870967741936</v>
+        <v>0.1722846441947566</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02285714285714286</v>
+        <v>0.02120141342756184</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1371428571428571</v>
+        <v>0.1360424028268551</v>
       </c>
       <c r="I17">
-        <v>0.1352380952380952</v>
+        <v>0.1325088339222615</v>
       </c>
       <c r="J17">
-        <v>0.4838095238095238</v>
+        <v>0.4858657243816255</v>
       </c>
       <c r="K17">
-        <v>0.07428571428571429</v>
+        <v>0.07597173144876325</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009523809523809525</v>
+        <v>0.008833922261484099</v>
       </c>
       <c r="N17">
-        <v>0.001904761904761905</v>
+        <v>0.00176678445229682</v>
       </c>
       <c r="O17">
-        <v>0.0419047619047619</v>
+        <v>0.04063604240282685</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09333333333333334</v>
+        <v>0.09717314487632508</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005952380952380952</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="I18">
-        <v>0.119047619047619</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="J18">
-        <v>0.4821428571428572</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="K18">
-        <v>0.1011904761904762</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04761904761904762</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08333333333333333</v>
+        <v>0.07909604519774012</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01085271317829457</v>
+        <v>0.01144492131616595</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2201550387596899</v>
+        <v>0.2160228898426323</v>
       </c>
       <c r="I19">
-        <v>0.09922480620155039</v>
+        <v>0.09585121602288985</v>
       </c>
       <c r="J19">
-        <v>0.3984496124031008</v>
+        <v>0.3969957081545064</v>
       </c>
       <c r="K19">
-        <v>0.09147286821705426</v>
+        <v>0.09585121602288985</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01705426356589147</v>
+        <v>0.01859799713876967</v>
       </c>
       <c r="N19">
-        <v>0.0007751937984496124</v>
+        <v>0.000715307582260372</v>
       </c>
       <c r="O19">
-        <v>0.0565891472868217</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1054263565891473</v>
+        <v>0.1087267525035765</v>
       </c>
     </row>
   </sheetData>
